--- a/BackTest/2020-01-11 BackTest BCH.xlsx
+++ b/BackTest/2020-01-11 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,17 +550,11 @@
         <v>-33.80006464999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>266500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,7 +624,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -665,11 +655,9 @@
         <v>-64.75446464999996</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -778,9 +766,11 @@
         <v>-102.26156465</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>265700</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -815,9 +805,11 @@
         <v>-90.31046464999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>265400</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -889,11 +881,9 @@
         <v>-90.31046464999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>266000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1779,11 +1769,9 @@
         <v>31.04973535000005</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>265900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1818,11 +1806,9 @@
         <v>31.04973535000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>266100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2634,11 +2620,9 @@
         <v>-108.3394646499999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>266100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2673,11 +2657,9 @@
         <v>-103.3394646499999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>265700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2712,11 +2694,9 @@
         <v>-114.3468646499999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>266000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2829,11 +2809,9 @@
         <v>-86.11626464999995</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>266400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4155,9 +4133,11 @@
         <v>-49.70783622999996</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>266800</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4192,9 +4172,11 @@
         <v>-49.70783622999996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>266800</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4229,9 +4211,11 @@
         <v>-50.08823622999996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>266800</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4266,9 +4250,11 @@
         <v>86.25156377000003</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>266700</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4340,9 +4326,11 @@
         <v>105.87806377</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>267200</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4377,9 +4365,11 @@
         <v>105.87806377</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>267300</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4525,9 +4515,11 @@
         <v>85.99886377000003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>267300</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -22655,11 +22647,9 @@
         <v>1221.235586509999</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>268000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -22731,11 +22721,9 @@
         <v>1216.903886509999</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>268300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -23399,11 +23387,9 @@
         <v>1146.965785199999</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>267000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -23882,11 +23868,9 @@
         <v>251.2010552799994</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>264700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -23921,11 +23905,9 @@
         <v>370.6239552799993</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>264800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -23960,11 +23942,9 @@
         <v>435.8608552799993</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>265200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -23999,11 +23979,9 @@
         <v>422.4335552799993</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>265700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -24038,11 +24016,9 @@
         <v>386.6597552799993</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>265600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -24077,11 +24053,9 @@
         <v>386.6597552799993</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -24116,11 +24090,9 @@
         <v>393.5815552799993</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -24155,11 +24127,9 @@
         <v>390.5769552799994</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>265700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -24379,11 +24349,9 @@
         <v>396.0008552799993</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>265600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -24418,11 +24386,9 @@
         <v>388.5340552799993</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>265800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -24457,11 +24423,9 @@
         <v>388.5340552799993</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -24496,11 +24460,9 @@
         <v>388.5340552799993</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -24535,11 +24497,9 @@
         <v>388.5340552799993</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -24574,11 +24534,9 @@
         <v>425.3049560399994</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -24613,11 +24571,9 @@
         <v>425.3049560399994</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>266100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -24652,11 +24608,9 @@
         <v>486.8140560399993</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>266100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -24691,11 +24645,9 @@
         <v>559.4847560399993</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>266400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -24730,11 +24682,9 @@
         <v>664.4136560399993</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>266500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -24769,11 +24719,9 @@
         <v>677.8118560399993</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>266700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -24808,11 +24756,9 @@
         <v>670.4253560399993</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>266800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -24847,11 +24793,9 @@
         <v>713.7829560399994</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>266700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -24886,11 +24830,9 @@
         <v>717.3126560399994</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>267100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -28107,18 +28049,16 @@
         <v>1518.31034869</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="inlineStr"/>
     </row>
     <row r="747">
@@ -28144,15 +28084,11 @@
         <v>1676.39164869</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28181,15 +28117,11 @@
         <v>1737.93046212</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28222,11 +28154,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28255,15 +28183,11 @@
         <v>1344.45333709</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28296,11 +28220,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28333,11 +28253,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28370,11 +28286,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28407,11 +28319,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28444,11 +28352,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28481,11 +28385,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28518,11 +28418,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28555,11 +28451,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28588,15 +28480,11 @@
         <v>2134.24713709</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28625,15 +28513,11 @@
         <v>2039.98573709</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28662,15 +28546,11 @@
         <v>2062.96230237</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28699,15 +28579,11 @@
         <v>1965.80570237</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28736,15 +28612,11 @@
         <v>1965.80570237</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28773,15 +28645,11 @@
         <v>2020.44410237</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28810,15 +28678,11 @@
         <v>1992.00310395</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28847,15 +28711,11 @@
         <v>1953.92260395</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28884,15 +28744,11 @@
         <v>1840.61670395</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28921,15 +28777,11 @@
         <v>1804.47140395</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28958,15 +28810,11 @@
         <v>1700.28920395</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28995,15 +28843,11 @@
         <v>1609.84860395</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29032,15 +28876,11 @@
         <v>1717.99210395</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29069,15 +28909,11 @@
         <v>1708.44270395</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29106,15 +28942,11 @@
         <v>1662.55047027</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29143,15 +28975,11 @@
         <v>1599.78767027</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29184,11 +29012,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29221,11 +29045,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29258,11 +29078,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29295,11 +29111,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29332,11 +29144,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29365,15 +29173,11 @@
         <v>1870.96277027</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29402,15 +29206,11 @@
         <v>1824.85207027</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29439,15 +29239,11 @@
         <v>1881.95677027</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29476,15 +29272,11 @@
         <v>1836.55627027</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29513,15 +29305,11 @@
         <v>1855.46127027</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29550,15 +29338,11 @@
         <v>1922.79477027</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29587,15 +29371,11 @@
         <v>1911.84907171</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29624,15 +29404,11 @@
         <v>1981.89987315</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29661,15 +29437,11 @@
         <v>2031.52347315</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29698,15 +29470,11 @@
         <v>2155.07527315</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29735,15 +29503,11 @@
         <v>2066.00897315</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29772,15 +29536,11 @@
         <v>2085.11794949</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29809,15 +29569,11 @@
         <v>2085.11794949</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29850,11 +29606,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29883,15 +29635,11 @@
         <v>2206.247049489999</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29924,11 +29672,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29961,11 +29705,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29998,11 +29738,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -30035,11 +29771,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -30072,11 +29804,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -30109,11 +29837,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -30146,11 +29870,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -30183,11 +29903,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -30220,11 +29936,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -30257,11 +29969,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -30294,11 +30002,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -30331,11 +30035,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -30368,11 +30068,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30405,11 +30101,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30442,11 +30134,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30479,11 +30167,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30516,11 +30200,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -30553,11 +30233,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -30590,11 +30266,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30627,11 +30299,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -30664,11 +30332,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -30701,11 +30365,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -30738,11 +30398,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30775,11 +30431,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30812,11 +30464,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30849,11 +30497,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30886,11 +30530,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30923,11 +30563,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30960,11 +30596,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30997,11 +30629,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -31034,11 +30662,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -31071,11 +30695,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -31108,11 +30728,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -31145,11 +30761,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -31182,11 +30794,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -31219,11 +30827,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -31256,11 +30860,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -31293,11 +30893,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -31330,11 +30926,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -31367,11 +30959,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -31404,11 +30992,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -31441,11 +31025,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -31478,11 +31058,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31515,11 +31091,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31552,11 +31124,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -31589,11 +31157,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -31626,11 +31190,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -31663,11 +31223,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -31700,11 +31256,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -31737,11 +31289,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31770,16 +31318,14 @@
         <v>3055.730243089999</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
       <c r="M845" t="inlineStr"/>
     </row>
     <row r="846">
@@ -31805,7 +31351,7 @@
         <v>3020.86564309</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31838,7 +31384,7 @@
         <v>3069.01832431</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31871,7 +31417,7 @@
         <v>3177.92012431</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31904,7 +31450,7 @@
         <v>3169.62592431</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31937,7 +31483,7 @@
         <v>3081.45762431</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31970,7 +31516,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -32003,7 +31549,7 @@
         <v>2978.23922431</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -32036,7 +31582,7 @@
         <v>2911.84912431</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -32069,7 +31615,7 @@
         <v>2723.33202431</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32102,7 +31648,7 @@
         <v>2868.53462431</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -32135,7 +31681,7 @@
         <v>2966.25862431</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -32168,7 +31714,7 @@
         <v>2963.92442431</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -32201,7 +31747,7 @@
         <v>2960.76742431</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -32234,7 +31780,7 @@
         <v>2990.40812431</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32366,7 +31912,7 @@
         <v>3027.50897974</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32432,7 +31978,7 @@
         <v>3103.572079739999</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32861,7 +32407,7 @@
         <v>3502.17615144</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32894,7 +32440,7 @@
         <v>3611.132051439999</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32927,7 +32473,7 @@
         <v>3512.03615144</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32960,7 +32506,7 @@
         <v>3500.68875144</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32993,7 +32539,7 @@
         <v>3500.68875144</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -33026,7 +32572,7 @@
         <v>3540.990851439999</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -33059,7 +32605,7 @@
         <v>3505.227351439999</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33092,7 +32638,7 @@
         <v>3475.36885144</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -33125,7 +32671,7 @@
         <v>3475.36885144</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -33158,7 +32704,7 @@
         <v>3493.23035144</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33191,7 +32737,7 @@
         <v>3452.19825144</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33224,7 +32770,7 @@
         <v>3452.19825144</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33257,7 +32803,7 @@
         <v>3456.59085144</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33290,7 +32836,7 @@
         <v>3443.23305144</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33323,7 +32869,7 @@
         <v>3360.07305144</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33356,7 +32902,7 @@
         <v>3336.97025144</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33389,7 +32935,7 @@
         <v>3336.97025144</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33422,7 +32968,7 @@
         <v>3290.601251439999</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33455,7 +33001,7 @@
         <v>3305.308451439999</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33488,7 +33034,7 @@
         <v>3400.404651439999</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33521,7 +33067,7 @@
         <v>3460.004651439999</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33554,7 +33100,7 @@
         <v>3435.459951439999</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33587,7 +33133,7 @@
         <v>3343.913151439999</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33620,7 +33166,7 @@
         <v>3242.629551439999</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33653,7 +33199,7 @@
         <v>2989.086551439999</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33686,7 +33232,7 @@
         <v>2927.176651439999</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33719,7 +33265,7 @@
         <v>3022.385751439999</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33752,7 +33298,7 @@
         <v>2997.318951439999</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33785,7 +33331,7 @@
         <v>2990.367551439999</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33851,7 +33397,7 @@
         <v>2837.542151439999</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33884,7 +33430,7 @@
         <v>2850.659351439999</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33917,7 +33463,7 @@
         <v>2855.926651439999</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -34049,7 +33595,7 @@
         <v>2875.479851439999</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -34082,7 +33628,7 @@
         <v>2858.314951439999</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -34115,7 +33661,7 @@
         <v>2853.165151439999</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34148,7 +33694,7 @@
         <v>2897.330851439999</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34247,7 +33793,7 @@
         <v>2787.720419909999</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34280,7 +33826,7 @@
         <v>2835.490966839999</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34313,7 +33859,7 @@
         <v>2830.154230489999</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34346,7 +33892,7 @@
         <v>2881.868430489998</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34445,7 +33991,7 @@
         <v>2855.645320759998</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34511,7 +34057,7 @@
         <v>2899.460222089998</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34544,7 +34090,7 @@
         <v>2899.460222089998</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34555,6 +34101,6 @@
       <c r="M929" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>